--- a/st00.docs/html&css정리.20190531.xlsx
+++ b/st00.docs/html&css정리.20190531.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="7515" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="html" sheetId="1" r:id="rId1"/>
@@ -271,14 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ul/li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ol/li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>table/tr/td/th</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>객체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어트리뷰트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +412,6 @@
   <si>
     <t>용도: 다른 태그를 감싼다. &lt;==&gt; 영역을 설정한다.
 부분 너비 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목 표시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1990,6 +1974,22 @@
   <si>
     <t>box-sizing:content-box;  &lt;--- 기본값. 안에서 밖으로 그리는 형태
 box-sizing:border-box; &lt;--- 레이아웃 작성시 사용. 밖에서 안으로 그리는 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ul/li  기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol/li  번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2169,7 +2169,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2209,6 +2209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2365,7 +2371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,6 +2633,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2639,9 +2648,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -2651,11 +2669,23 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2672,25 +2702,10 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2702,32 +2717,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3430,8 +3451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3443,110 +3464,111 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>91</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
+    <row r="6" spans="1:3" s="125" customFormat="1"/>
     <row r="8" spans="1:3">
       <c r="A8" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="118" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="120"/>
+      <c r="B11" s="118" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="118" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="92"/>
+      <c r="B12" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="118" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="49.5">
+      <c r="A13" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="14" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="49.5">
+      <c r="A14" s="90"/>
+      <c r="B14" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="88"/>
-      <c r="B11" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="49.5">
-      <c r="A13" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="49.5">
-      <c r="A14" s="89"/>
-      <c r="B14" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="82.5">
@@ -3554,21 +3576,21 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="44" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="33">
@@ -3576,30 +3598,30 @@
         <v>2</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="49.5">
+      <c r="A18" s="121" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="122" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="124"/>
+      <c r="B19" s="123" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="123" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="117" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="116" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="118"/>
-      <c r="B19" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1">
@@ -3607,10 +3629,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>129</v>
+        <v>84</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" customHeight="1">
@@ -3618,85 +3640,85 @@
         <v>4</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="89"/>
+        <v>85</v>
+      </c>
+      <c r="C21" s="90"/>
       <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="88" t="s">
         <v>5</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C22" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="90"/>
+      <c r="B23" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="89"/>
+      <c r="B25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="89"/>
+      <c r="B26" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="89"/>
+      <c r="B27" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="89"/>
-      <c r="B23" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="90" t="s">
+      <c r="C27" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="14" t="s">
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="89"/>
+      <c r="B28" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="88"/>
-      <c r="B25" s="14" t="s">
+      <c r="C28" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="90"/>
+      <c r="B29" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="88"/>
-      <c r="B26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="88"/>
-      <c r="B27" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="88"/>
-      <c r="B28" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="89"/>
-      <c r="B29" s="14" t="s">
-        <v>99</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3733,122 +3755,122 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" s="51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="50" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>216</v>
+      <c r="A4" s="87" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>212</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="99" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B5" s="119" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="119" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="119" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="120" t="s">
-        <v>405</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>207</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="120"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="50" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="119" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="119" t="s">
-        <v>180</v>
+      <c r="A9" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>176</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="119" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="119" t="s">
-        <v>176</v>
+      <c r="A10" s="87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>172</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3864,127 +3886,127 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="51" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="92" t="s">
-        <v>204</v>
+      <c r="A14" s="96" t="s">
+        <v>200</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="93"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="77" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="93"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="50" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="93"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="93"/>
-      <c r="B18" s="91" t="s">
-        <v>193</v>
+      <c r="A18" s="97"/>
+      <c r="B18" s="93" t="s">
+        <v>189</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="D18" s="93" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="93"/>
-      <c r="B19" s="91"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="93"/>
       <c r="C19" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="91"/>
+        <v>186</v>
+      </c>
+      <c r="D19" s="93"/>
     </row>
     <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="93"/>
-      <c r="B20" s="91" t="s">
-        <v>189</v>
+      <c r="A20" s="97"/>
+      <c r="B20" s="93" t="s">
+        <v>185</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="D20" s="93" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="93"/>
-      <c r="B21" s="91"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="91"/>
+        <v>182</v>
+      </c>
+      <c r="D21" s="93"/>
     </row>
     <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="93"/>
-      <c r="B22" s="91" t="s">
-        <v>185</v>
+      <c r="A22" s="97"/>
+      <c r="B22" s="93" t="s">
+        <v>181</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="D22" s="93" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="94"/>
-      <c r="B23" s="91"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" s="91"/>
+        <v>178</v>
+      </c>
+      <c r="D23" s="93"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="59"/>
@@ -4000,317 +4022,312 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="72" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B27" s="72" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D27" s="50" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="72" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B28" s="72" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D28" s="50" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="50" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>167</v>
-      </c>
-      <c r="C34" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="96"/>
+      <c r="A34" s="93" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="95"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="96"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="91"/>
+      <c r="A36" s="93"/>
       <c r="B36" s="50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C36" s="56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="91"/>
+      <c r="A37" s="93"/>
       <c r="B37" s="50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C37" s="56" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="91"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="56" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D38" s="52"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="91"/>
+      <c r="A39" s="93"/>
       <c r="B39" s="54"/>
       <c r="C39" s="54"/>
       <c r="D39" s="52"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="91"/>
+      <c r="A40" s="93"/>
       <c r="B40" s="53" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C40" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="D40" s="52"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="93"/>
+      <c r="B41" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="D41" s="52"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="93"/>
+      <c r="B42" s="50" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="52"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="91"/>
-      <c r="B41" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>391</v>
-      </c>
-      <c r="D41" s="52"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="91"/>
-      <c r="B42" s="50" t="s">
-        <v>394</v>
-      </c>
       <c r="C42" s="76" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D42" s="52"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="91"/>
+      <c r="A43" s="93"/>
       <c r="B43" s="50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="91"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="50" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D44" s="52"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="91"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="91"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D46" s="50" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="93"/>
+      <c r="B47" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="83" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="91"/>
-      <c r="B47" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>408</v>
-      </c>
-    </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="91"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="91"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="53" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D49" s="52"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="92" t="s">
-        <v>141</v>
+      <c r="A53" s="96" t="s">
+        <v>137</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="93"/>
+      <c r="A54" s="97"/>
       <c r="B54" s="83" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C54" s="83" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D54" s="83" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="93"/>
+      <c r="A55" s="97"/>
       <c r="B55" s="50" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D55" s="50" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="93"/>
+      <c r="A56" s="97"/>
       <c r="B56" s="50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D56" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="94"/>
+      <c r="A57" s="98"/>
       <c r="B57" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4321,6 +4338,11 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4355,325 +4377,325 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="107" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>382</v>
+      <c r="A2" s="100" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>378</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D2" s="70" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="102"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="18" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D3" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="101"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="101"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="101"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A7" s="101"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="71" t="s">
         <v>377</v>
       </c>
-      <c r="E3" s="62" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="104"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="104"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="104"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="71" t="s">
-        <v>381</v>
-      </c>
       <c r="D7" s="69" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="102"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="81" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="82" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E8" s="85" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="104"/>
-      <c r="B9" s="102" t="s">
-        <v>367</v>
+      <c r="A9" s="101"/>
+      <c r="B9" s="103" t="s">
+        <v>363</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="104"/>
-      <c r="B10" s="102"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="79" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="104"/>
-      <c r="B11" s="102"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="104"/>
-      <c r="B12" s="102"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="104"/>
-      <c r="B13" s="102"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="104"/>
-      <c r="B14" s="102"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="19" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="104"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="19" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="68" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="104"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="104"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="4" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="104"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="104"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="104"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="104"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="104"/>
-      <c r="B22" s="102" t="s">
-        <v>344</v>
+      <c r="A22" s="101"/>
+      <c r="B22" s="103" t="s">
+        <v>340</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="104"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="104"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="105"/>
-      <c r="B25" s="102"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="18" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4686,380 +4708,380 @@
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
       <c r="A27" s="46"/>
       <c r="B27" s="46" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="B28" s="106" t="s">
-        <v>330</v>
+      <c r="A28" s="104" t="s">
+        <v>327</v>
+      </c>
+      <c r="B28" s="104" t="s">
+        <v>326</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="102"/>
-      <c r="B29" s="102"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="102"/>
-      <c r="B30" s="102"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="100" t="s">
-        <v>323</v>
-      </c>
-      <c r="D31" s="101" t="s">
-        <v>322</v>
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="108" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" s="109" t="s">
+        <v>318</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="109"/>
       <c r="E32" s="62" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="102"/>
-      <c r="B36" s="102"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="102"/>
-      <c r="B37" s="102"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="18" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D37" s="63" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="102"/>
-      <c r="B38" s="102"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="102"/>
-      <c r="B39" s="102"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="102"/>
-      <c r="B40" s="102"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D40" s="63" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E40" s="62" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="102"/>
-      <c r="B42" s="102"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="102"/>
-      <c r="B43" s="106" t="s">
-        <v>300</v>
+      <c r="A43" s="103"/>
+      <c r="B43" s="104" t="s">
+        <v>296</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="102"/>
-      <c r="B44" s="102"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="102"/>
-      <c r="B45" s="102"/>
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="102"/>
-      <c r="B46" s="102"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="102"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="102"/>
-      <c r="B48" s="106" t="s">
-        <v>289</v>
+      <c r="A48" s="103"/>
+      <c r="B48" s="104" t="s">
+        <v>285</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="102"/>
-      <c r="B49" s="102"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="102"/>
-      <c r="B50" s="102"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="102"/>
-      <c r="B51" s="102"/>
+      <c r="A51" s="103"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="102"/>
-      <c r="B52" s="102"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="16" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="102"/>
-      <c r="B53" s="102" t="s">
-        <v>282</v>
+      <c r="A53" s="103"/>
+      <c r="B53" s="103" t="s">
+        <v>278</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="102"/>
-      <c r="B54" s="102"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="102"/>
-      <c r="B55" s="102"/>
+      <c r="A55" s="103"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="102"/>
-      <c r="B56" s="102" t="s">
-        <v>274</v>
+      <c r="A56" s="103"/>
+      <c r="B56" s="103" t="s">
+        <v>270</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="102"/>
-      <c r="B57" s="102"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="16" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="102"/>
-      <c r="B58" s="102"/>
+      <c r="A58" s="103"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5071,150 +5093,150 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="110" t="s">
-        <v>265</v>
+      <c r="A60" s="100" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" s="113" t="s">
+        <v>261</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E60" s="20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="108"/>
-      <c r="B61" s="111"/>
+      <c r="A61" s="111"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="18" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="104"/>
-      <c r="B62" s="109" t="s">
-        <v>262</v>
+      <c r="A62" s="101"/>
+      <c r="B62" s="112" t="s">
+        <v>258</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="104"/>
-      <c r="B63" s="109"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="104"/>
-      <c r="B64" s="109"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="112"/>
       <c r="C64" s="32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="104"/>
-      <c r="B65" s="109"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="112"/>
       <c r="C65" s="16" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="104"/>
-      <c r="B66" s="109"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="112"/>
       <c r="C66" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="104"/>
-      <c r="B67" s="109"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="112"/>
       <c r="C67" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="104"/>
-      <c r="B68" s="109"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="112"/>
       <c r="C68" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="104"/>
-      <c r="B69" s="109"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D69" s="33" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="105"/>
-      <c r="B70" s="109"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="31" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D70" s="35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5232,140 +5254,133 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="B73" s="103" t="s">
-        <v>240</v>
+      <c r="A73" s="105" t="s">
+        <v>237</v>
+      </c>
+      <c r="B73" s="110" t="s">
+        <v>236</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="98"/>
-      <c r="B74" s="104"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="42.75">
+      <c r="A75" s="106"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="32" t="s">
         <v>235</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>234</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="98"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="32" t="s">
-        <v>239</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="98"/>
-      <c r="B76" s="104"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E76" s="34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="42.75">
+      <c r="A77" s="106"/>
+      <c r="B77" s="101"/>
+      <c r="C77" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="106"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="57">
+      <c r="A79" s="106"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="42.75">
+      <c r="A80" s="106"/>
+      <c r="B80" s="101"/>
+      <c r="C80" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80" s="33" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="98"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="98"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="98"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="D79" s="33" t="s">
+      <c r="E80" s="34" t="s">
         <v>433</v>
       </c>
-      <c r="E79" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="98"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>437</v>
-      </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="98"/>
-      <c r="B81" s="104"/>
+      <c r="A81" s="106"/>
+      <c r="B81" s="101"/>
       <c r="C81" s="31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="99"/>
-      <c r="B82" s="105"/>
+      <c r="A82" s="107"/>
+      <c r="B82" s="102"/>
       <c r="C82" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5376,6 +5391,13 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5388,7 +5410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5411,7 +5433,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="117" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -5422,7 +5444,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="112"/>
+      <c r="A3" s="117"/>
       <c r="B3" s="47" t="s">
         <v>21</v>
       </c>
@@ -5431,7 +5453,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="117" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="47" t="s">
@@ -5442,7 +5464,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="112"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="47" t="s">
         <v>27</v>
       </c>
@@ -5451,7 +5473,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="112"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="47" t="s">
         <v>29</v>
       </c>
@@ -5460,7 +5482,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="112"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="47" t="s">
         <v>24</v>
       </c>
@@ -5469,7 +5491,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="117" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="47" t="s">
@@ -5480,7 +5502,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="112"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="47" t="s">
         <v>36</v>
       </c>
@@ -5489,7 +5511,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="112"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="47" t="s">
         <v>33</v>
       </c>
@@ -5498,25 +5520,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="113" t="s">
+      <c r="A11" s="115" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="115" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="114"/>
+      <c r="A12" s="116"/>
       <c r="B12" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="114"/>
+      <c r="C12" s="116"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="117" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="47" t="s">
@@ -5527,7 +5549,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="112"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="47" t="s">
         <v>46</v>
       </c>
@@ -5536,7 +5558,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="112"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="47" t="s">
         <v>48</v>
       </c>
@@ -5545,7 +5567,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="112"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="47" t="s">
         <v>50</v>
       </c>
@@ -5554,7 +5576,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="112"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="47" t="s">
         <v>43</v>
       </c>
@@ -5563,7 +5585,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="117" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="47" t="s">
@@ -5574,7 +5596,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="112"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="47" t="s">
         <v>44</v>
       </c>
@@ -5583,7 +5605,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="112"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="47" t="s">
         <v>46</v>
       </c>
@@ -5592,7 +5614,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="112"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="47" t="s">
         <v>48</v>
       </c>
@@ -5601,7 +5623,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="112"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="47" t="s">
         <v>54</v>
       </c>
@@ -5610,7 +5632,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="117" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="47" t="s">
@@ -5621,42 +5643,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="112"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="47" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="112"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="112"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="47" t="s">
         <v>68</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="112"/>
+      <c r="A27" s="117"/>
       <c r="B27" s="47" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="112"/>
+      <c r="A28" s="117"/>
       <c r="B28" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="117" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="47" t="s">
@@ -5665,35 +5687,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="112"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="112"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="47" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="112"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="47" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="112"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="47" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="112"/>
+      <c r="A34" s="117"/>
       <c r="B34" s="47" t="s">
         <v>43</v>
       </c>
@@ -5704,14 +5726,14 @@
         <v>64</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C35" s="47" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="112" t="s">
+      <c r="A36" s="117" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="47" t="s">
@@ -5722,7 +5744,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="112"/>
+      <c r="A37" s="117"/>
       <c r="B37" s="47" t="s">
         <v>72</v>
       </c>
@@ -5731,7 +5753,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="112"/>
+      <c r="A38" s="117"/>
       <c r="B38" s="47" t="s">
         <v>73</v>
       </c>
@@ -5741,16 +5763,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190531.xlsx
+++ b/st00.docs/html&css정리.20190531.xlsx
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>input 태그</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티미디어 태그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1990,6 +1986,11 @@
   </si>
   <si>
     <t>ol/li  번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티미디어 태그
+(플레이기능이있다)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2169,7 +2170,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2215,6 +2216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2371,7 +2378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2501,9 +2508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2636,76 +2640,97 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2717,38 +2742,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3451,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3464,261 +3480,261 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
     </row>
-    <row r="6" spans="1:3" s="125" customFormat="1"/>
+    <row r="6" spans="1:3" s="90" customFormat="1"/>
     <row r="8" spans="1:3">
       <c r="A8" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="87" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="92"/>
+      <c r="B11" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="93"/>
+      <c r="B12" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="49.5">
+      <c r="A13" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="118" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="120"/>
-      <c r="B11" s="118" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="49.5">
+      <c r="A14" s="95"/>
+      <c r="B14" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="82.5">
+      <c r="A15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="118" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="118" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="49.5">
-      <c r="A13" s="91" t="s">
+      <c r="C15" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="49.5">
-      <c r="A14" s="90"/>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="125" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33">
+      <c r="A17" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="49.5">
+      <c r="A18" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33">
+      <c r="A19" s="98"/>
+      <c r="B19" s="89" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A20" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="95"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7" ht="33">
+      <c r="A22" s="128" t="s">
         <v>437</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="B22" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="126" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="33">
+      <c r="A23" s="127"/>
+      <c r="B23" s="125" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="96"/>
+      <c r="B25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="82.5">
-      <c r="A15" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="33">
-      <c r="A17" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="122" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="123" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="96"/>
+      <c r="B26" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="96"/>
+      <c r="B27" s="14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="124"/>
-      <c r="B19" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="123" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A20" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="90"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="88" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="90"/>
-      <c r="B23" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="C27" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="96"/>
+      <c r="B28" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="89"/>
-      <c r="B25" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="89"/>
-      <c r="B26" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="89"/>
-      <c r="B27" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="89"/>
-      <c r="B28" s="14" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="95"/>
+      <c r="B29" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="90"/>
-      <c r="B29" s="14" t="s">
-        <v>96</v>
-      </c>
       <c r="C29" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3746,588 +3762,593 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="86.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="66.375" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="86.625" style="48"/>
+    <col min="1" max="1" width="14.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="66.375" style="47" customWidth="1"/>
+    <col min="5" max="16384" width="86.625" style="47"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>138</v>
       </c>
+      <c r="D2" s="50" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="A3" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>214</v>
+      <c r="D3" s="49" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="B4" s="87" t="s">
+      <c r="A4" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>210</v>
       </c>
+      <c r="D4" s="49" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="87" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="86" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>207</v>
       </c>
+      <c r="D5" s="49" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="87" t="s">
-        <v>380</v>
-      </c>
-      <c r="B6" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="A6" s="86" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="86" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>204</v>
+      </c>
+      <c r="D6" s="49" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="A7" s="99" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>385</v>
+      <c r="C7" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="A8" s="99"/>
       <c r="B8" s="99"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="50" t="s">
-        <v>384</v>
+      <c r="C8" s="100"/>
+      <c r="D8" s="49" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="86" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="86" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="59"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="102"/>
+      <c r="B15" s="76" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="102"/>
+      <c r="B16" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="102"/>
+      <c r="B17" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="27">
+      <c r="A18" s="102"/>
+      <c r="B18" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="D18" s="100" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="102"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="100"/>
+    </row>
+    <row r="20" spans="1:4" ht="27">
+      <c r="A20" s="102"/>
+      <c r="B20" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="100" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="102"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21" s="100"/>
+    </row>
+    <row r="22" spans="1:4" ht="27">
+      <c r="A22" s="102"/>
+      <c r="B22" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="103"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="D23" s="100"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="57"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="B27" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="C27" s="49" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="87" t="s">
+      <c r="D27" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="87" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="71" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="B28" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="C28" s="49" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="60"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="51" t="s">
+      <c r="D28" s="49" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="105"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="100"/>
+      <c r="B36" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="51"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="100"/>
+      <c r="B37" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="51"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="100"/>
+      <c r="B38" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="51"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="100"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="51"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="100"/>
+      <c r="B40" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" s="51"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="100"/>
+      <c r="B41" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="51"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="100"/>
+      <c r="B42" s="49" t="s">
+        <v>389</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>388</v>
+      </c>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="100"/>
+      <c r="B43" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="100"/>
+      <c r="B44" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="51"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="100"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="100"/>
+      <c r="B46" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="100"/>
+      <c r="B47" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="100"/>
+      <c r="B48" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="51"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="100"/>
+      <c r="B49" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="51"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="B52" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="C52" s="50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="B14" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="97"/>
-      <c r="B16" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="97"/>
-      <c r="B17" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="97"/>
-      <c r="B18" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="93"/>
-    </row>
-    <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="97"/>
-      <c r="B20" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="93" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="97"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="50" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="93"/>
-    </row>
-    <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="97"/>
-      <c r="B22" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>180</v>
-      </c>
-      <c r="D22" s="93" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="98"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="D23" s="93"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="58"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="72" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="72" t="s">
-        <v>173</v>
-      </c>
-      <c r="B28" s="72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C33" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="93" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="93" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="95"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="95"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="93"/>
-      <c r="B36" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="52"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="93"/>
-      <c r="B37" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="52"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="93"/>
-      <c r="B38" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="52"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="93"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="52"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="93"/>
-      <c r="B40" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C40" s="76" t="s">
-        <v>386</v>
-      </c>
-      <c r="D40" s="52"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="93"/>
-      <c r="B41" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>387</v>
-      </c>
-      <c r="D41" s="52"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="93"/>
-      <c r="B42" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="C42" s="76" t="s">
-        <v>389</v>
-      </c>
-      <c r="D42" s="52"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="93"/>
-      <c r="B43" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="52"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="93"/>
-      <c r="B44" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="52"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="93"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="93"/>
-      <c r="B46" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="93"/>
-      <c r="B47" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="83" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="93"/>
-      <c r="B48" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="52"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="93"/>
-      <c r="B49" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="52"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>138</v>
+      <c r="D52" s="50" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="96" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="50" t="s">
+      <c r="A53" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="B53" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="C53" s="49" t="s">
         <v>134</v>
       </c>
+      <c r="D53" s="49" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="97"/>
-      <c r="B54" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="83" t="s">
+      <c r="A54" s="102"/>
+      <c r="B54" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="102"/>
+      <c r="B55" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="49" t="s">
         <v>417</v>
       </c>
-      <c r="D54" s="83" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="97"/>
-      <c r="B55" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="50" t="s">
+      <c r="D55" s="49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="102"/>
+      <c r="B56" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="49" t="s">
         <v>418</v>
       </c>
-      <c r="D55" s="50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="97"/>
-      <c r="B56" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="D56" s="50" t="s">
-        <v>129</v>
+      <c r="D56" s="49" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="98"/>
-      <c r="B57" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="50" t="s">
+      <c r="A57" s="103"/>
+      <c r="B57" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="C57" s="49" t="s">
         <v>126</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A34:A49"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -4338,11 +4359,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A34:A49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,711 +4393,711 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="B2" s="103" t="s">
+      <c r="A2" s="116" t="s">
         <v>378</v>
       </c>
+      <c r="B2" s="111" t="s">
+        <v>377</v>
+      </c>
       <c r="C2" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="81" customHeight="1">
+      <c r="A3" s="113"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="42.75">
+      <c r="A4" s="113"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57">
+      <c r="A5" s="113"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="113"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="42.75" customHeight="1">
+      <c r="A7" s="113"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="70" t="s">
         <v>376</v>
       </c>
-      <c r="D2" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="101"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>373</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="101"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="101"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="101"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="101"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="71" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="86.25" customHeight="1">
+      <c r="A8" s="113"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42.75">
+      <c r="A9" s="113"/>
+      <c r="B9" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="E7" s="86" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="82" t="s">
+      <c r="E9" s="20" t="s">
         <v>412</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="101"/>
-      <c r="B9" s="103" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>413</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="101"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="79" t="s">
-        <v>361</v>
+      <c r="A10" s="113"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="78" t="s">
+        <v>360</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="101"/>
-      <c r="B11" s="103"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="E11" s="62" t="s">
         <v>358</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>357</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="101"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E12" s="4"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="101"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="101"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="D14" s="63" t="s">
         <v>353</v>
       </c>
+      <c r="D14" s="62" t="s">
+        <v>352</v>
+      </c>
       <c r="E14" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="101"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="E15" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>344</v>
+      </c>
+      <c r="E15" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="101"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="111"/>
       <c r="C16" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="101"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="111"/>
       <c r="C17" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D17" s="78" t="s">
         <v>349</v>
       </c>
+      <c r="D17" s="77" t="s">
+        <v>348</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="101"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="111"/>
       <c r="C18" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="101"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="111"/>
       <c r="C19" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="101"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="111"/>
       <c r="C20" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.5">
+      <c r="A21" s="113"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="101"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>397</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="101"/>
-      <c r="B22" s="103" t="s">
-        <v>340</v>
+      <c r="A22" s="113"/>
+      <c r="B22" s="111" t="s">
+        <v>339</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="101"/>
-      <c r="B23" s="103"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="111"/>
       <c r="C23" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="101"/>
-      <c r="B24" s="103"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="111"/>
       <c r="C24" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="102"/>
-      <c r="B25" s="103"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="111"/>
       <c r="C25" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="E25" s="62" t="s">
         <v>329</v>
       </c>
+      <c r="E25" s="61" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="67"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="64"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="63"/>
     </row>
     <row r="27" spans="1:5" ht="209.25" customHeight="1">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46" t="s">
-        <v>328</v>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45" t="s">
+        <v>327</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="26"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="104" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="104" t="s">
+      <c r="A28" s="115" t="s">
         <v>326</v>
       </c>
+      <c r="B28" s="115" t="s">
+        <v>325</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
       <c r="C29" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="103"/>
-      <c r="B30" s="103"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
       <c r="C30" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="103"/>
-      <c r="B31" s="103"/>
-      <c r="C31" s="108" t="s">
-        <v>319</v>
-      </c>
-      <c r="D31" s="109" t="s">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="109" t="s">
         <v>318</v>
       </c>
+      <c r="D31" s="110" t="s">
+        <v>317</v>
+      </c>
       <c r="E31" s="18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="42.75">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="61" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="103"/>
-      <c r="B32" s="103"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="62" t="s">
-        <v>392</v>
-      </c>
-    </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
       <c r="C33" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D33" s="26"/>
       <c r="E33" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
       <c r="C34" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="103"/>
-      <c r="B35" s="103"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
       <c r="C35" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D35" s="26"/>
       <c r="E35" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="103"/>
-      <c r="B36" s="103"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D36" s="26"/>
       <c r="E36" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="103"/>
-      <c r="B37" s="103"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="111"/>
       <c r="C37" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="D37" s="63" t="s">
         <v>308</v>
       </c>
-      <c r="E37" s="62" t="s">
-        <v>388</v>
+      <c r="D37" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="103"/>
-      <c r="B38" s="103"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="111"/>
       <c r="C38" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D38" s="26"/>
       <c r="E38" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="103"/>
-      <c r="B39" s="103"/>
+      <c r="A39" s="111"/>
+      <c r="B39" s="111"/>
       <c r="C39" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D39" s="26"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="103"/>
-      <c r="B40" s="103"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
       <c r="C40" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D40" s="63" t="s">
         <v>303</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="D40" s="62" t="s">
         <v>302</v>
       </c>
+      <c r="E40" s="61" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="103"/>
-      <c r="B41" s="103"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="111"/>
       <c r="C41" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="D41" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="E41" s="62" t="s">
+      <c r="D41" s="62" t="s">
         <v>299</v>
       </c>
+      <c r="E41" s="61" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="103"/>
-      <c r="B42" s="103"/>
+      <c r="A42" s="111"/>
+      <c r="B42" s="111"/>
       <c r="C42" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="103"/>
-      <c r="B43" s="104" t="s">
-        <v>296</v>
+      <c r="A43" s="111"/>
+      <c r="B43" s="115" t="s">
+        <v>295</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="103"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
       <c r="C44" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="103"/>
-      <c r="B45" s="103"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
       <c r="C45" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="103"/>
-      <c r="B46" s="103"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
       <c r="C46" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D46" s="26"/>
       <c r="E46" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="103"/>
-      <c r="B47" s="103"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
       <c r="C47" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="103"/>
-      <c r="B48" s="104" t="s">
-        <v>285</v>
+      <c r="A48" s="111"/>
+      <c r="B48" s="115" t="s">
+        <v>284</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="103"/>
-      <c r="B49" s="103"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="103"/>
-      <c r="B50" s="103"/>
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
       <c r="C50" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D50" s="26"/>
       <c r="E50" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="103"/>
-      <c r="B51" s="103"/>
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
       <c r="C51" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="103"/>
-      <c r="B52" s="103"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
       <c r="C52" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="103"/>
-      <c r="B53" s="103" t="s">
-        <v>278</v>
+      <c r="A53" s="111"/>
+      <c r="B53" s="111" t="s">
+        <v>277</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="103"/>
-      <c r="B54" s="103"/>
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
       <c r="C54" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="103"/>
-      <c r="B55" s="103"/>
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
       <c r="C55" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="103"/>
-      <c r="B56" s="103" t="s">
-        <v>270</v>
+      <c r="A56" s="111"/>
+      <c r="B56" s="111" t="s">
+        <v>269</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="103"/>
-      <c r="B57" s="103"/>
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="103"/>
-      <c r="B58" s="103"/>
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
       <c r="C58" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E58" s="5"/>
     </row>
@@ -5093,158 +5109,158 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="100" t="s">
-        <v>262</v>
-      </c>
-      <c r="B60" s="113" t="s">
+      <c r="A60" s="116" t="s">
         <v>261</v>
       </c>
+      <c r="B60" s="119" t="s">
+        <v>260</v>
+      </c>
       <c r="C60" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D60" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="117"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>406</v>
       </c>
-      <c r="E60" s="20" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="111"/>
-      <c r="B61" s="114"/>
-      <c r="C61" s="18" t="s">
-        <v>405</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>407</v>
-      </c>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="101"/>
-      <c r="B62" s="112" t="s">
-        <v>258</v>
+      <c r="A62" s="113"/>
+      <c r="B62" s="118" t="s">
+        <v>257</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E62" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="101"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="118"/>
       <c r="C63" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="101"/>
-      <c r="B64" s="112"/>
+      <c r="A64" s="113"/>
+      <c r="B64" s="118"/>
       <c r="C64" s="32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E64" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="101"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="113"/>
+      <c r="B65" s="118"/>
       <c r="C65" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="101"/>
-      <c r="B66" s="112"/>
+      <c r="A66" s="113"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="32" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="101"/>
-      <c r="B67" s="112"/>
+      <c r="A67" s="113"/>
+      <c r="B67" s="118"/>
       <c r="C67" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E67" s="12" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="42.75">
+      <c r="A68" s="113"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.5">
+      <c r="A69" s="113"/>
+      <c r="B69" s="118"/>
+      <c r="C69" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="E69" s="34" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="101"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="101"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>425</v>
-      </c>
-    </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="102"/>
-      <c r="B70" s="112"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="118"/>
       <c r="C70" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="36" t="s">
         <v>420</v>
       </c>
-      <c r="D70" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E70" s="36" t="s">
-        <v>421</v>
-      </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="61"/>
+      <c r="A71" s="60"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="75"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="74"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="10"/>
@@ -5254,133 +5270,140 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="105" t="s">
-        <v>237</v>
-      </c>
-      <c r="B73" s="110" t="s">
+      <c r="A73" s="106" t="s">
         <v>236</v>
       </c>
+      <c r="B73" s="112" t="s">
+        <v>235</v>
+      </c>
       <c r="C73" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="107"/>
+      <c r="B74" s="113"/>
+      <c r="C74" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="42.75">
+      <c r="A75" s="107"/>
+      <c r="B75" s="113"/>
+      <c r="C75" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="106"/>
-      <c r="B74" s="101"/>
-      <c r="C74" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="E74" s="32"/>
-    </row>
-    <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="106"/>
-      <c r="B75" s="101"/>
-      <c r="C75" s="32" t="s">
-        <v>235</v>
       </c>
       <c r="D75" s="33"/>
       <c r="E75" s="34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="85.5">
+      <c r="A76" s="107"/>
+      <c r="B76" s="113"/>
+      <c r="C76" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="42.75">
+      <c r="A77" s="107"/>
+      <c r="B77" s="113"/>
+      <c r="C77" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="107"/>
+      <c r="B78" s="113"/>
+      <c r="C78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" ht="57">
+      <c r="A79" s="107"/>
+      <c r="B79" s="113"/>
+      <c r="C79" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>428</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="42.75">
+      <c r="A80" s="107"/>
+      <c r="B80" s="113"/>
+      <c r="C80" s="32" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="106"/>
-      <c r="B76" s="101"/>
-      <c r="C76" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="106"/>
-      <c r="B77" s="101"/>
-      <c r="C77" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D77" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="106"/>
-      <c r="B78" s="101"/>
-      <c r="C78" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="106"/>
-      <c r="B79" s="101"/>
-      <c r="C79" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D79" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="106"/>
-      <c r="B80" s="101"/>
-      <c r="C80" s="32" t="s">
+      <c r="D80" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="E80" s="34" t="s">
         <v>432</v>
       </c>
-      <c r="E80" s="34" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="106"/>
-      <c r="B81" s="101"/>
+      <c r="A81" s="107"/>
+      <c r="B81" s="113"/>
       <c r="C81" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="107"/>
-      <c r="B82" s="102"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="114"/>
       <c r="C82" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B28:B42"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="A28:A58"/>
     <mergeCell ref="A73:A82"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
@@ -5391,13 +5414,6 @@
     <mergeCell ref="A60:A70"/>
     <mergeCell ref="B62:B70"/>
     <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B28:B42"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="A28:A58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5423,356 +5439,356 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25">
       <c r="A1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="117" t="s">
+      <c r="B2" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="47" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
+      <c r="A3" s="121"/>
+      <c r="B3" s="46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="47" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="36.75" customHeight="1">
+      <c r="A4" s="121" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="117" t="s">
+      <c r="B4" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="34.5">
+      <c r="A5" s="121"/>
+      <c r="B5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34.5">
+      <c r="A6" s="121"/>
+      <c r="B6" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="34.5">
+      <c r="A7" s="121"/>
+      <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="117"/>
-      <c r="B5" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="117"/>
-      <c r="B6" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="117"/>
-      <c r="B7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="47" t="s">
+    <row r="8" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A8" s="121" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="117" t="s">
+      <c r="B8" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="121"/>
+      <c r="B9" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34.5">
+      <c r="A10" s="121"/>
+      <c r="B10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="117"/>
-      <c r="B10" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="47" t="s">
+    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
+      <c r="A11" s="122" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="115" t="s">
+      <c r="B11" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="47" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="17.25" hidden="1">
+      <c r="A12" s="123"/>
+      <c r="B12" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="123"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="121"/>
+      <c r="B14" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="121"/>
+      <c r="B15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34.5">
+      <c r="A16" s="121"/>
+      <c r="B16" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="34.5">
+      <c r="A17" s="121"/>
+      <c r="B17" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="121"/>
+      <c r="B19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="121"/>
+      <c r="B20" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="121"/>
+      <c r="B21" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="51.75">
+      <c r="A22" s="121"/>
+      <c r="B22" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="34.5">
+      <c r="A23" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="115" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="116"/>
-      <c r="B12" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="116"/>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="117" t="s">
+      <c r="C23" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="121"/>
+      <c r="B24" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="121"/>
+      <c r="B25" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="121"/>
+      <c r="B26" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" ht="17.25">
+      <c r="A27" s="121"/>
+      <c r="B27" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="121"/>
+      <c r="B28" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
+      <c r="A30" s="121"/>
+      <c r="B30" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="22"/>
+    </row>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="121"/>
+      <c r="B31" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
+      <c r="A32" s="121"/>
+      <c r="B32" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="121"/>
+      <c r="B33" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="22"/>
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
+      <c r="A34" s="121"/>
+      <c r="B34" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="117"/>
-      <c r="B16" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="117"/>
-      <c r="B17" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="117"/>
-      <c r="B21" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="117"/>
-      <c r="B22" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="117" t="s">
+      <c r="C34" s="22"/>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="22"/>
-    </row>
-    <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="22"/>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="22"/>
-    </row>
-    <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="22"/>
-    </row>
-    <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="22"/>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="47" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="34.5">
+      <c r="A36" s="121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="22"/>
-    </row>
-    <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="22"/>
-    </row>
-    <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="22"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="22"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="117"/>
-      <c r="B33" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="22"/>
-    </row>
-    <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="22"/>
-    </row>
-    <row r="35" spans="1:3" ht="17.25">
-      <c r="A35" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="47" t="s">
+      <c r="C36" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="34.5">
+      <c r="A37" s="121"/>
+      <c r="B37" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C37" s="46" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="117"/>
-      <c r="B37" s="47" t="s">
+    <row r="38" spans="1:3" ht="34.5">
+      <c r="A38" s="121"/>
+      <c r="B38" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C38" s="46" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="117"/>
-      <c r="B38" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A28"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/st00.docs/html&css정리.20190531.xlsx
+++ b/st00.docs/html&css정리.20190531.xlsx
@@ -2170,7 +2170,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2222,6 +2222,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2378,7 +2384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2652,6 +2658,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2667,7 +2685,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2750,21 +2780,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3467,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3539,7 +3554,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="95" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="87" t="s">
@@ -3550,7 +3565,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="92"/>
+      <c r="A11" s="96"/>
       <c r="B11" s="87" t="s">
         <v>77</v>
       </c>
@@ -3559,7 +3574,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="93"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="87" t="s">
         <v>112</v>
       </c>
@@ -3568,7 +3583,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="49.5">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="98" t="s">
         <v>114</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -3579,7 +3594,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5">
-      <c r="A14" s="95"/>
+      <c r="A14" s="99"/>
       <c r="B14" s="14" t="s">
         <v>436</v>
       </c>
@@ -3598,152 +3613,152 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="124" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="125" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="33">
-      <c r="A17" s="43" t="s">
+    <row r="16" spans="1:3" ht="33">
+      <c r="A16" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C16" s="38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="97" t="s">
+    <row r="17" spans="1:7" ht="49.5">
+      <c r="A17" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B17" s="88" t="s">
         <v>109</v>
       </c>
+      <c r="C17" s="89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33">
+      <c r="A18" s="106"/>
+      <c r="B18" s="89" t="s">
+        <v>108</v>
+      </c>
       <c r="C18" s="89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33">
-      <c r="A19" s="98"/>
-      <c r="B19" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="89" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="47.25" customHeight="1">
       <c r="A20" s="43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="95"/>
-      <c r="G21" s="44"/>
+      <c r="C20" s="99"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="33">
-      <c r="A22" s="128" t="s">
+      <c r="A22" s="100" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="93" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="33">
-      <c r="A23" s="127"/>
-      <c r="B23" s="125" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="C23" s="93" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="94" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="96"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="103"/>
+      <c r="B25" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="94" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="96"/>
-      <c r="B26" s="14" t="s">
+      <c r="A26" s="103"/>
+      <c r="B26" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="94" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="96"/>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="103"/>
+      <c r="B27" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="94" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="96"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="94" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="95"/>
-      <c r="B29" s="14" t="s">
+      <c r="A29" s="104"/>
+      <c r="B29" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="94" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A17:A18"/>
     <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3756,7 +3771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -3840,13 +3855,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="107" t="s">
         <v>400</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="108" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="49" t="s">
@@ -3854,9 +3869,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="107"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="49" t="s">
         <v>383</v>
       </c>
@@ -3915,7 +3930,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="109" t="s">
         <v>199</v>
       </c>
       <c r="B14" s="76" t="s">
@@ -3929,7 +3944,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="102"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="76" t="s">
         <v>402</v>
       </c>
@@ -3941,7 +3956,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="102"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="49" t="s">
         <v>194</v>
       </c>
@@ -3953,7 +3968,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="102"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="49" t="s">
         <v>191</v>
       </c>
@@ -3965,64 +3980,64 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="27">
-      <c r="A18" s="102"/>
-      <c r="B18" s="100" t="s">
+      <c r="A18" s="110"/>
+      <c r="B18" s="108" t="s">
         <v>188</v>
       </c>
       <c r="C18" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="108" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="102"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="100"/>
+      <c r="D19" s="108"/>
     </row>
     <row r="20" spans="1:4" ht="27">
-      <c r="A20" s="102"/>
-      <c r="B20" s="100" t="s">
+      <c r="A20" s="110"/>
+      <c r="B20" s="108" t="s">
         <v>184</v>
       </c>
       <c r="C20" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="108" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="102"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="108"/>
       <c r="C21" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="108"/>
     </row>
     <row r="22" spans="1:4" ht="27">
-      <c r="A22" s="102"/>
-      <c r="B22" s="100" t="s">
+      <c r="A22" s="110"/>
+      <c r="B22" s="108" t="s">
         <v>180</v>
       </c>
       <c r="C22" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="100" t="s">
+      <c r="D22" s="108" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="103"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="108"/>
       <c r="C23" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="100"/>
+      <c r="D23" s="108"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="58"/>
@@ -4113,25 +4128,25 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="104" t="s">
+      <c r="C34" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="105"/>
+      <c r="D34" s="113"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="105"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="113"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="100"/>
+      <c r="A36" s="108"/>
       <c r="B36" s="49" t="s">
         <v>160</v>
       </c>
@@ -4141,7 +4156,7 @@
       <c r="D36" s="51"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="100"/>
+      <c r="A37" s="108"/>
       <c r="B37" s="49" t="s">
         <v>158</v>
       </c>
@@ -4151,7 +4166,7 @@
       <c r="D37" s="51"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="100"/>
+      <c r="A38" s="108"/>
       <c r="B38" s="55" t="s">
         <v>156</v>
       </c>
@@ -4161,13 +4176,13 @@
       <c r="D38" s="51"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="100"/>
+      <c r="A39" s="108"/>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
       <c r="D39" s="51"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="100"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="52" t="s">
         <v>154</v>
       </c>
@@ -4177,7 +4192,7 @@
       <c r="D40" s="51"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="100"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="52" t="s">
         <v>153</v>
       </c>
@@ -4187,7 +4202,7 @@
       <c r="D41" s="51"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="100"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="49" t="s">
         <v>389</v>
       </c>
@@ -4197,7 +4212,7 @@
       <c r="D42" s="51"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="100"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="49" t="s">
         <v>152</v>
       </c>
@@ -4207,7 +4222,7 @@
       <c r="D43" s="51"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="100"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="49" t="s">
         <v>150</v>
       </c>
@@ -4217,13 +4232,13 @@
       <c r="D44" s="51"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="100"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="100"/>
+      <c r="A46" s="108"/>
       <c r="B46" s="52" t="s">
         <v>148</v>
       </c>
@@ -4235,7 +4250,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="100"/>
+      <c r="A47" s="108"/>
       <c r="B47" s="83" t="s">
         <v>146</v>
       </c>
@@ -4247,7 +4262,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="100"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="52" t="s">
         <v>144</v>
       </c>
@@ -4257,7 +4272,7 @@
       <c r="D48" s="51"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="100"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="52" t="s">
         <v>142</v>
       </c>
@@ -4281,7 +4296,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="109" t="s">
         <v>136</v>
       </c>
       <c r="B53" s="49" t="s">
@@ -4295,7 +4310,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="102"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="82" t="s">
         <v>132</v>
       </c>
@@ -4307,7 +4322,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="102"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="49" t="s">
         <v>130</v>
       </c>
@@ -4319,7 +4334,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="102"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="49" t="s">
         <v>129</v>
       </c>
@@ -4331,7 +4346,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="103"/>
+      <c r="A57" s="111"/>
       <c r="B57" s="49" t="s">
         <v>127</v>
       </c>
@@ -4393,10 +4408,10 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="36" customHeight="1">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="124" t="s">
         <v>378</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="119" t="s">
         <v>377</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4410,8 +4425,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="81" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="111"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="18" t="s">
         <v>373</v>
       </c>
@@ -4423,8 +4438,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="42.75">
-      <c r="A4" s="113"/>
-      <c r="B4" s="111"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="5" t="s">
         <v>370</v>
       </c>
@@ -4436,8 +4451,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="57">
-      <c r="A5" s="113"/>
-      <c r="B5" s="111"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="5" t="s">
         <v>367</v>
       </c>
@@ -4449,8 +4464,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="113"/>
-      <c r="B6" s="111"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="5" t="s">
         <v>364</v>
       </c>
@@ -4460,8 +4475,8 @@
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" customHeight="1">
-      <c r="A7" s="113"/>
-      <c r="B7" s="111"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="70" t="s">
         <v>376</v>
       </c>
@@ -4473,8 +4488,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="86.25" customHeight="1">
-      <c r="A8" s="113"/>
-      <c r="B8" s="111"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="80" t="s">
         <v>9</v>
       </c>
@@ -4486,8 +4501,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="42.75">
-      <c r="A9" s="113"/>
-      <c r="B9" s="111" t="s">
+      <c r="A9" s="121"/>
+      <c r="B9" s="119" t="s">
         <v>362</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -4503,8 +4518,8 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="57">
-      <c r="A10" s="113"/>
-      <c r="B10" s="111"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="78" t="s">
         <v>360</v>
       </c>
@@ -4518,8 +4533,8 @@
       <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8" ht="42.75">
-      <c r="A11" s="113"/>
-      <c r="B11" s="111"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="19" t="s">
         <v>358</v>
       </c>
@@ -4533,8 +4548,8 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="113"/>
-      <c r="B12" s="111"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="4" t="s">
         <v>356</v>
       </c>
@@ -4546,8 +4561,8 @@
       <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="113"/>
-      <c r="B13" s="111"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
@@ -4559,8 +4574,8 @@
       <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="113"/>
-      <c r="B14" s="111"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="19" t="s">
         <v>353</v>
       </c>
@@ -4574,8 +4589,8 @@
       <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8" ht="28.5">
-      <c r="A15" s="113"/>
-      <c r="B15" s="111"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="19" t="s">
         <v>10</v>
       </c>
@@ -4589,8 +4604,8 @@
       <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="113"/>
-      <c r="B16" s="111"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="5" t="s">
         <v>351</v>
       </c>
@@ -4602,8 +4617,8 @@
       <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="113"/>
-      <c r="B17" s="111"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="119"/>
       <c r="C17" s="4" t="s">
         <v>349</v>
       </c>
@@ -4613,8 +4628,8 @@
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="113"/>
-      <c r="B18" s="111"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="119"/>
       <c r="C18" s="5" t="s">
         <v>347</v>
       </c>
@@ -4626,8 +4641,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="113"/>
-      <c r="B19" s="111"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="7" t="s">
         <v>342</v>
       </c>
@@ -4637,8 +4652,8 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="113"/>
-      <c r="B20" s="111"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="7" t="s">
         <v>341</v>
       </c>
@@ -4648,8 +4663,8 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="28.5">
-      <c r="A21" s="113"/>
-      <c r="B21" s="111"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="7" t="s">
         <v>11</v>
       </c>
@@ -4661,8 +4676,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="57">
-      <c r="A22" s="113"/>
-      <c r="B22" s="111" t="s">
+      <c r="A22" s="121"/>
+      <c r="B22" s="119" t="s">
         <v>339</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -4676,8 +4691,8 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="113"/>
-      <c r="B23" s="111"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="5" t="s">
         <v>336</v>
       </c>
@@ -4689,8 +4704,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.5">
-      <c r="A24" s="113"/>
-      <c r="B24" s="111"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="5" t="s">
         <v>333</v>
       </c>
@@ -4702,8 +4717,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="57">
-      <c r="A25" s="114"/>
-      <c r="B25" s="111"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="18" t="s">
         <v>330</v>
       </c>
@@ -4731,10 +4746,10 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="71.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="123" t="s">
         <v>326</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="123" t="s">
         <v>325</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -4748,8 +4763,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="114">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="5" t="s">
         <v>322</v>
       </c>
@@ -4761,8 +4776,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="85.5">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="A30" s="119"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="5" t="s">
         <v>320</v>
       </c>
@@ -4774,12 +4789,12 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="109" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="117" t="s">
         <v>318</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="118" t="s">
         <v>317</v>
       </c>
       <c r="E31" s="18" t="s">
@@ -4787,17 +4802,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="42.75">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="110"/>
+      <c r="A32" s="119"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
       <c r="E32" s="61" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="5" t="s">
         <v>316</v>
       </c>
@@ -4807,8 +4822,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
+      <c r="A34" s="119"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="5" t="s">
         <v>314</v>
       </c>
@@ -4818,8 +4833,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="5" t="s">
         <v>312</v>
       </c>
@@ -4829,8 +4844,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="111"/>
-      <c r="B36" s="111"/>
+      <c r="A36" s="119"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="5" t="s">
         <v>310</v>
       </c>
@@ -4840,8 +4855,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="114">
-      <c r="A37" s="111"/>
-      <c r="B37" s="111"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="18" t="s">
         <v>308</v>
       </c>
@@ -4853,8 +4868,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="111"/>
-      <c r="B38" s="111"/>
+      <c r="A38" s="119"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="5" t="s">
         <v>306</v>
       </c>
@@ -4864,8 +4879,8 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="111"/>
-      <c r="B39" s="111"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="5" t="s">
         <v>304</v>
       </c>
@@ -4873,8 +4888,8 @@
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" ht="28.5">
-      <c r="A40" s="111"/>
-      <c r="B40" s="111"/>
+      <c r="A40" s="119"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="18" t="s">
         <v>303</v>
       </c>
@@ -4886,8 +4901,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="42.75">
-      <c r="A41" s="111"/>
-      <c r="B41" s="111"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="18" t="s">
         <v>300</v>
       </c>
@@ -4899,8 +4914,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="111"/>
-      <c r="B42" s="111"/>
+      <c r="A42" s="119"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="5" t="s">
         <v>297</v>
       </c>
@@ -4910,8 +4925,8 @@
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="111"/>
-      <c r="B43" s="115" t="s">
+      <c r="A43" s="119"/>
+      <c r="B43" s="123" t="s">
         <v>295</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -4923,8 +4938,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
+      <c r="A44" s="119"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="5" t="s">
         <v>292</v>
       </c>
@@ -4934,8 +4949,8 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="5" t="s">
         <v>290</v>
       </c>
@@ -4945,8 +4960,8 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="5" t="s">
         <v>288</v>
       </c>
@@ -4956,8 +4971,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="42.75">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="16" t="s">
         <v>286</v>
       </c>
@@ -4967,8 +4982,8 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="111"/>
-      <c r="B48" s="115" t="s">
+      <c r="A48" s="119"/>
+      <c r="B48" s="123" t="s">
         <v>284</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -4980,8 +4995,8 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="5" t="s">
         <v>6</v>
       </c>
@@ -4991,8 +5006,8 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="119"/>
       <c r="C50" s="5" t="s">
         <v>7</v>
       </c>
@@ -5002,8 +5017,8 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="119"/>
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
@@ -5013,8 +5028,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="42.75">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="16" t="s">
         <v>279</v>
       </c>
@@ -5024,8 +5039,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="28.5">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111" t="s">
+      <c r="A53" s="119"/>
+      <c r="B53" s="119" t="s">
         <v>277</v>
       </c>
       <c r="C53" s="16" t="s">
@@ -5039,8 +5054,8 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
+      <c r="A54" s="119"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="16" t="s">
         <v>274</v>
       </c>
@@ -5052,8 +5067,8 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
+      <c r="A55" s="119"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="5" t="s">
         <v>271</v>
       </c>
@@ -5063,8 +5078,8 @@
       <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" ht="28.5">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111" t="s">
+      <c r="A56" s="119"/>
+      <c r="B56" s="119" t="s">
         <v>269</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -5078,8 +5093,8 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
+      <c r="A57" s="119"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="16" t="s">
         <v>266</v>
       </c>
@@ -5091,8 +5106,8 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
+      <c r="A58" s="119"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="5" t="s">
         <v>263</v>
       </c>
@@ -5109,10 +5124,10 @@
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="99.75">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="B60" s="119" t="s">
+      <c r="B60" s="127" t="s">
         <v>260</v>
       </c>
       <c r="C60" s="18" t="s">
@@ -5126,8 +5141,8 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="117"/>
-      <c r="B61" s="120"/>
+      <c r="A61" s="125"/>
+      <c r="B61" s="128"/>
       <c r="C61" s="18" t="s">
         <v>404</v>
       </c>
@@ -5137,8 +5152,8 @@
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="57">
-      <c r="A62" s="113"/>
-      <c r="B62" s="118" t="s">
+      <c r="A62" s="121"/>
+      <c r="B62" s="126" t="s">
         <v>257</v>
       </c>
       <c r="C62" s="18" t="s">
@@ -5152,8 +5167,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="42.75">
-      <c r="A63" s="113"/>
-      <c r="B63" s="118"/>
+      <c r="A63" s="121"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="5" t="s">
         <v>253</v>
       </c>
@@ -5165,8 +5180,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="42.75">
-      <c r="A64" s="113"/>
-      <c r="B64" s="118"/>
+      <c r="A64" s="121"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="32" t="s">
         <v>250</v>
       </c>
@@ -5178,8 +5193,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="42.75">
-      <c r="A65" s="113"/>
-      <c r="B65" s="118"/>
+      <c r="A65" s="121"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="16" t="s">
         <v>247</v>
       </c>
@@ -5191,8 +5206,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="57">
-      <c r="A66" s="113"/>
-      <c r="B66" s="118"/>
+      <c r="A66" s="121"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="32" t="s">
         <v>245</v>
       </c>
@@ -5204,8 +5219,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="57">
-      <c r="A67" s="113"/>
-      <c r="B67" s="118"/>
+      <c r="A67" s="121"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="5" t="s">
         <v>242</v>
       </c>
@@ -5217,8 +5232,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="42.75">
-      <c r="A68" s="113"/>
-      <c r="B68" s="118"/>
+      <c r="A68" s="121"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="5" t="s">
         <v>240</v>
       </c>
@@ -5230,8 +5245,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="28.5">
-      <c r="A69" s="113"/>
-      <c r="B69" s="118"/>
+      <c r="A69" s="121"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="32" t="s">
         <v>238</v>
       </c>
@@ -5243,8 +5258,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="71.25">
-      <c r="A70" s="114"/>
-      <c r="B70" s="118"/>
+      <c r="A70" s="122"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="31" t="s">
         <v>419</v>
       </c>
@@ -5270,10 +5285,10 @@
       <c r="E72" s="13"/>
     </row>
     <row r="73" spans="1:5" ht="57">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="B73" s="112" t="s">
+      <c r="B73" s="120" t="s">
         <v>235</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -5287,8 +5302,8 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="107"/>
-      <c r="B74" s="113"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="121"/>
       <c r="C74" s="32" t="s">
         <v>230</v>
       </c>
@@ -5298,8 +5313,8 @@
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" ht="42.75">
-      <c r="A75" s="107"/>
-      <c r="B75" s="113"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="121"/>
       <c r="C75" s="32" t="s">
         <v>234</v>
       </c>
@@ -5309,8 +5324,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="85.5">
-      <c r="A76" s="107"/>
-      <c r="B76" s="113"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="121"/>
       <c r="C76" s="32" t="s">
         <v>228</v>
       </c>
@@ -5322,8 +5337,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="42.75">
-      <c r="A77" s="107"/>
-      <c r="B77" s="113"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="121"/>
       <c r="C77" s="4" t="s">
         <v>226</v>
       </c>
@@ -5335,8 +5350,8 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="107"/>
-      <c r="B78" s="113"/>
+      <c r="A78" s="115"/>
+      <c r="B78" s="121"/>
       <c r="C78" s="4" t="s">
         <v>224</v>
       </c>
@@ -5346,8 +5361,8 @@
       <c r="E78" s="5"/>
     </row>
     <row r="79" spans="1:5" ht="57">
-      <c r="A79" s="107"/>
-      <c r="B79" s="113"/>
+      <c r="A79" s="115"/>
+      <c r="B79" s="121"/>
       <c r="C79" s="31" t="s">
         <v>222</v>
       </c>
@@ -5359,8 +5374,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="42.75">
-      <c r="A80" s="107"/>
-      <c r="B80" s="113"/>
+      <c r="A80" s="115"/>
+      <c r="B80" s="121"/>
       <c r="C80" s="32" t="s">
         <v>430</v>
       </c>
@@ -5372,8 +5387,8 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="107"/>
-      <c r="B81" s="113"/>
+      <c r="A81" s="115"/>
+      <c r="B81" s="121"/>
       <c r="C81" s="31" t="s">
         <v>220</v>
       </c>
@@ -5383,8 +5398,8 @@
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" ht="57">
-      <c r="A82" s="108"/>
-      <c r="B82" s="114"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="122"/>
       <c r="C82" s="4" t="s">
         <v>218</v>
       </c>
@@ -5449,7 +5464,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="129" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -5460,7 +5475,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="129"/>
       <c r="B3" s="46" t="s">
         <v>20</v>
       </c>
@@ -5469,7 +5484,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A4" s="121" t="s">
+      <c r="A4" s="129" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -5480,7 +5495,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="34.5">
-      <c r="A5" s="121"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="46" t="s">
         <v>26</v>
       </c>
@@ -5489,7 +5504,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="34.5">
-      <c r="A6" s="121"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="46" t="s">
         <v>28</v>
       </c>
@@ -5498,7 +5513,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="34.5">
-      <c r="A7" s="121"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="46" t="s">
         <v>23</v>
       </c>
@@ -5507,7 +5522,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="129" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -5518,7 +5533,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.25">
-      <c r="A9" s="121"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="46" t="s">
         <v>35</v>
       </c>
@@ -5527,7 +5542,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="34.5">
-      <c r="A10" s="121"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="46" t="s">
         <v>32</v>
       </c>
@@ -5536,25 +5551,25 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25" hidden="1" customHeight="1">
-      <c r="A11" s="122" t="s">
+      <c r="A11" s="130" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="C11" s="130" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.25" hidden="1">
-      <c r="A12" s="123"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="123"/>
+      <c r="C12" s="131"/>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="129" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -5565,7 +5580,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="121"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="46" t="s">
         <v>45</v>
       </c>
@@ -5574,7 +5589,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="121"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="46" t="s">
         <v>47</v>
       </c>
@@ -5583,7 +5598,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="34.5">
-      <c r="A16" s="121"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="46" t="s">
         <v>49</v>
       </c>
@@ -5592,7 +5607,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="34.5">
-      <c r="A17" s="121"/>
+      <c r="A17" s="129"/>
       <c r="B17" s="46" t="s">
         <v>42</v>
       </c>
@@ -5601,7 +5616,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="129" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -5612,7 +5627,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="121"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="46" t="s">
         <v>43</v>
       </c>
@@ -5621,7 +5636,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="121"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="46" t="s">
         <v>45</v>
       </c>
@@ -5630,7 +5645,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="121"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="46" t="s">
         <v>47</v>
       </c>
@@ -5639,7 +5654,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="51.75">
-      <c r="A22" s="121"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="46" t="s">
         <v>53</v>
       </c>
@@ -5648,7 +5663,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="34.5">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="129" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -5659,42 +5674,42 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="121"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="46" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="121"/>
+      <c r="A25" s="129"/>
       <c r="B25" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="121"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="46" t="s">
         <v>67</v>
       </c>
       <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="121"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="22"/>
     </row>
     <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="121"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="46" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="121" t="s">
+      <c r="A29" s="129" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="46" t="s">
@@ -5703,35 +5718,35 @@
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="121"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="46" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="121"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="46" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="22"/>
     </row>
     <row r="32" spans="1:3" ht="17.25">
-      <c r="A32" s="121"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="46" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="22"/>
     </row>
     <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="121"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="46" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="22"/>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="121"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="46" t="s">
         <v>42</v>
       </c>
@@ -5749,7 +5764,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="34.5">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="129" t="s">
         <v>18</v>
       </c>
       <c r="B36" s="46" t="s">
@@ -5760,7 +5775,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="34.5">
-      <c r="A37" s="121"/>
+      <c r="A37" s="129"/>
       <c r="B37" s="46" t="s">
         <v>71</v>
       </c>
@@ -5769,7 +5784,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="34.5">
-      <c r="A38" s="121"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="46" t="s">
         <v>72</v>
       </c>
